--- a/v0.7/StructureDefinition-Condition.xlsx
+++ b/v0.7/StructureDefinition-Condition.xlsx
@@ -1378,17 +1378,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1401,22 +1401,22 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.07421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.68359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="212.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="212.80078125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>

--- a/v0.7/StructureDefinition-Condition.xlsx
+++ b/v0.7/StructureDefinition-Condition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXCondition</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-Condition.html</t>
   </si>
   <si>
     <t>Version</t>
